--- a/Car Inventory.xlsx
+++ b/Car Inventory.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vashistpatel/Desktop/youtube/Microsoft_Excel_Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BC79D-0D1C-5F44-91E0-88CD193BAFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8AD3D8-20D1-1047-A41F-29C9AF1CB510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" activeTab="1" xr2:uid="{291565E2-835A-6542-80E4-65FD3C18253C}"/>
+    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" xr2:uid="{291565E2-835A-6542-80E4-65FD3C18253C}"/>
   </bookViews>
   <sheets>
     <sheet name="Car Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Car Inventory Pivot Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>Car ID</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Vashist patel</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2340,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD67F66E-8182-7E43-87EA-42187C7A0240}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD67F66E-8182-7E43-87EA-42187C7A0240}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -2761,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE026839-1031-E145-BB7A-0F67C537274E}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5567,6 +5570,11 @@
       <c r="N53" t="str">
         <f t="shared" si="8"/>
         <v>FD06MTGBLA001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15D2428-E511-5543-A32F-22F26B87ECB2}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
